--- a/planning/assets/formatsXlsx/Productos.xlsx
+++ b/planning/assets/formatsXlsx/Productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>referencia_producto</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>existencias</t>
+  </si>
+  <si>
+    <t>tipo_producto</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -60,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -82,19 +85,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -110,56 +100,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,12 +139,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
     <tableColumn name="referencia_producto" id="1"/>
     <tableColumn name="producto" id="2"/>
     <tableColumn name="existencias" id="3"/>
+    <tableColumn name="tipo_producto" id="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -475,15 +439,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -493,34 +458,42 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/assets/formatsXlsx/Productos.xlsx
+++ b/planning/assets/formatsXlsx/Productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>referencia_producto</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>existencias</t>
-  </si>
-  <si>
-    <t>tipo_producto</t>
   </si>
 </sst>
 </file>
@@ -139,13 +136,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
+  <tableColumns count="3">
     <tableColumn name="referencia_producto" id="1"/>
     <tableColumn name="producto" id="2"/>
     <tableColumn name="existencias" id="3"/>
-    <tableColumn name="tipo_producto" id="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -439,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -448,7 +444,6 @@
     <col min="1" max="1" style="5" width="40.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="40.14785714285715" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -461,39 +456,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
